--- a/swa-semestral-project-scoreboard.xlsx
+++ b/swa-semestral-project-scoreboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kfrajtak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/necasond/Personal/Microservices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B0D2996-C5C4-454C-B7BD-EF4675AA0BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01F952A-3109-E548-AB9B-C7F6BE4DA728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{864321B4-2EC7-40CC-95C6-43C5C970555B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19920" xr2:uid="{864321B4-2EC7-40CC-95C6-43C5C970555B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -301,6 +301,36 @@
     <t>.env file and environment variables are equivalent</t>
   </si>
   <si>
+    <t>https://octopus.com/blog/configuration-as-code-what-is-it-how-is-it-beneficial</t>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Backing services – treat backing services as attached resources</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>·</t>
     </r>
@@ -324,1028 +354,998 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
+      <t>backing services like database and similar will be deployed as containers too (1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Build, release, run – strictly separate build and run stages</t>
+    </r>
+  </si>
+  <si>
+    <t>Create a docker-compose file that will start the system, it should not build the artifacts. Artifacts should be created as a part of CI pipeline.</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CI &amp; docker </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">eventually upload your images to docker hub (bonus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Processes – execute the app as one or more stateless processes (1)</t>
+    </r>
+  </si>
+  <si>
+    <t>Use that docker-compose to run the system.</t>
+  </si>
+  <si>
+    <r>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Port binding – export services via port binding (1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Disposability – maximize robustness with fast startup and graceful shutdown</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ability to stop/restart service without catastrophic failure for the rest (2)</t>
+    </r>
+  </si>
+  <si>
+    <t>Stop one container, demonstrate stability of the system (i.e. circuit breaker)</t>
+  </si>
+  <si>
+    <r>
+      <t>9.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dev/prod parity – keep development, staging, and production as similar as possible</t>
+    </r>
+  </si>
+  <si>
+    <t>Dev/prod parity - one docker-compose for development for debugging and testing (like SMTP fake server), unless you can do that in Idea and Java for integration testing; one docker-compose file for production.</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3-5 integration tests (5)</t>
+    </r>
+  </si>
+  <si>
+    <t>no need to focus on unit tests</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>services will be deployed as containers (2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Logs – treat logs as event streams</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log into standard output (1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">eventually collect logs in Elastic or in other tool (bonus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Communication </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REST API defined using Open API standard (Swagger) (2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>auto-generated in each service (1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clear URLs (2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clean usage of HTTP statuses (2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">eventually message based asynchronous communication via queue (bonus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transparency – the client should never know the exact location of a service.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>service discovery (2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">eventually client side load balancing (bonus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <t>·             or workload balancing (bonus: 0.5)</t>
+  </si>
+  <si>
+    <r>
+      <t>13.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Health monitoring – a microservice should communicate its health</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actuators (1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">eventually Elastic APM or other tool (bonus: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design patterns – use the appropriate patterns</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>15.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scope – use domain driven design or similar to design the microservices (5)</t>
+    </r>
+  </si>
+  <si>
+    <t>Prove that you "got DDD" - to put it simply: just use only the attributes of objects in your services that are essential, i.e. don't include the color of the vehicle in trip service. Also the service should be doing one thing only. Think about it as a Single Responsibility principle on service level.</t>
+  </si>
+  <si>
+    <r>
+      <t>16.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Documentation – visually communicate architecture of your system (5)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">https://c4model.com/  (https://github.com/RicardoNiepel/C4-PlantUML) </t>
+    </r>
+  </si>
+  <si>
+    <t>https://github.com/plantuml-stdlib/C4-PlantUML#snippets-for-visual-studio-code</t>
+  </si>
+  <si>
+    <t>Score:</t>
+  </si>
+  <si>
+    <t>The aim of the semestral project is to demonstrate your knowledge of microservices and their advantages and disadvantages. Do not focus on the business logic in detail, feel free to cut corners whenever possible. For example fake the image recognition service by reading EXIF data you have provided or just "detect" the content of the image from the file name.</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">eventually as configuration as code (bonus: </t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>0.5</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>https://octopus.com/blog/configuration-as-code-what-is-it-how-is-it-beneficial</t>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Backing services – treat backing services as attached resources</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>backing services like database and similar will be deployed as containers too (1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Build, release, run – strictly separate build and run stages</t>
-    </r>
-  </si>
-  <si>
-    <t>Create a docker-compose file that will start the system, it should not build the artifacts. Artifacts should be created as a part of CI pipeline.</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">CI &amp; docker </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">eventually upload your images to docker hub (bonus: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Processes – execute the app as one or more stateless processes (1)</t>
-    </r>
-  </si>
-  <si>
-    <t>Use that docker-compose to run the system.</t>
-  </si>
-  <si>
-    <r>
-      <t>7.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Port binding – export services via port binding (1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Disposability – maximize robustness with fast startup and graceful shutdown</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ability to stop/restart service without catastrophic failure for the rest (2)</t>
-    </r>
-  </si>
-  <si>
-    <t>Stop one container, demonstrate stability of the system (i.e. circuit breaker)</t>
-  </si>
-  <si>
-    <r>
-      <t>9.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dev/prod parity – keep development, staging, and production as similar as possible</t>
-    </r>
-  </si>
-  <si>
-    <t>Dev/prod parity - one docker-compose for development for debugging and testing (like SMTP fake server), unless you can do that in Idea and Java for integration testing; one docker-compose file for production.</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3-5 integration tests (5)</t>
-    </r>
-  </si>
-  <si>
-    <t>no need to focus on unit tests</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>services will be deployed as containers (2)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Logs – treat logs as event streams</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>log into standard output (1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">eventually collect logs in Elastic or in other tool (bonus: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Communication </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>REST API defined using Open API standard (Swagger) (2)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>auto-generated in each service (1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>clear URLs (2)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>clean usage of HTTP statuses (2)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">eventually message based asynchronous communication via queue (bonus: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>12.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Transparency – the client should never know the exact location of a service.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>service discovery (2)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">eventually client side load balancing (bonus: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <t>·             or workload balancing (bonus: 0.5)</t>
-  </si>
-  <si>
-    <r>
-      <t>13.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Health monitoring – a microservice should communicate its health</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Actuators (1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">eventually Elastic APM or other tool (bonus: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>14.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design patterns – use the appropriate patterns</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>15.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Scope – use domain driven design or similar to design the microservices (5)</t>
-    </r>
-  </si>
-  <si>
-    <t>Prove that you "got DDD" - to put it simply: just use only the attributes of objects in your services that are essential, i.e. don't include the color of the vehicle in trip service. Also the service should be doing one thing only. Think about it as a Single Responsibility principle on service level.</t>
-  </si>
-  <si>
-    <r>
-      <t>16.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Documentation – visually communicate architecture of your system (5)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">https://c4model.com/  (https://github.com/RicardoNiepel/C4-PlantUML) </t>
-    </r>
-  </si>
-  <si>
-    <t>https://github.com/plantuml-stdlib/C4-PlantUML#snippets-for-visual-studio-code</t>
-  </si>
-  <si>
-    <t>Score:</t>
-  </si>
-  <si>
-    <t>The aim of the semestral project is to demonstrate your knowledge of microservices and their advantages and disadvantages. Do not focus on the business logic in detail, feel free to cut corners whenever possible. For example fake the image recognition service by reading EXIF data you have provided or just "detect" the content of the image from the file name.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1425,13 +1425,44 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1456,7 +1487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1498,6 +1529,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1816,22 +1864,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873DB46-5D9A-4BC0-9BA8-EB39F633CD5B}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="161" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" style="8"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="11" max="13" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="36">
+    <row r="1" spans="1:22" ht="37" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1">
+    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1848,7 +1896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1857,7 +1905,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1872,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1887,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1902,40 +1950,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="8" t="str">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="3" t="s">
+      <c r="N7" s="19"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8" t="str">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20">
+        <v>0</v>
+      </c>
+      <c r="M8" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="3" t="s">
+      <c r="N8" s="19"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8" t="str">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20">
+        <v>0</v>
+      </c>
+      <c r="M9" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="N9" s="19"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1944,7 +2026,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1962,36 +2044,45 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="23">
+        <v>0</v>
+      </c>
+      <c r="M12" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="6" t="s">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="2" t="s">
+      <c r="M13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="M13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="K14" s="8">
         <v>1</v>
@@ -2004,16 +2095,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="30.75" customHeight="1">
+    <row r="15" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O15" s="17" t="s">
         <v>20</v>
-      </c>
-      <c r="M15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O15" s="17" t="s">
-        <v>21</v>
       </c>
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
@@ -2023,18 +2114,18 @@
       <c r="U15" s="17"/>
       <c r="V15" s="17"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="M16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="K17" s="8">
         <v>1</v>
@@ -2047,9 +2138,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K18" s="8">
         <v>1</v>
@@ -2062,12 +2153,12 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="K19" s="8">
         <v>1</v>
@@ -2080,18 +2171,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="M20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="K21" s="8">
         <v>2</v>
@@ -2104,19 +2195,19 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" ht="45.75" customHeight="1">
-      <c r="A22" s="10" t="s">
+      <c r="M22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O22" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="M22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O22" s="17" t="s">
-        <v>31</v>
       </c>
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
@@ -2126,9 +2217,9 @@
       <c r="U22" s="17"/>
       <c r="V22" s="17"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K23" s="8">
         <v>5</v>
@@ -2141,12 +2232,12 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="K24" s="8">
         <v>2</v>
@@ -2159,18 +2250,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="M25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="A26" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="K26" s="8">
         <v>1</v>
@@ -2183,9 +2274,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K27" s="8">
         <v>0.5</v>
@@ -2198,18 +2289,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="M28" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="A29" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="K29" s="8">
         <v>2</v>
@@ -2222,9 +2313,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K30" s="8">
         <v>1</v>
@@ -2237,9 +2328,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K31" s="8">
         <v>2</v>
@@ -2252,9 +2343,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K32" s="8">
         <v>2</v>
@@ -2267,9 +2358,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K33" s="8">
         <v>1</v>
@@ -2282,18 +2373,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M34" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="M34" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
-      <c r="A35" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="K35" s="8">
         <v>2</v>
@@ -2306,9 +2397,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36" s="8">
         <v>0.5</v>
@@ -2321,9 +2412,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" s="1" customFormat="1">
+    <row r="37" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K37" s="9">
         <v>0.5</v>
@@ -2336,18 +2427,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M38" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="M38" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:22">
-      <c r="A39" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="K39" s="8">
         <v>1</v>
@@ -2360,9 +2451,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K40" s="8">
         <v>1</v>
@@ -2375,9 +2466,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K41" s="8">
         <v>7</v>
@@ -2390,9 +2481,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="58.5" customHeight="1">
+    <row r="42" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K42" s="8">
         <v>5</v>
@@ -2405,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P42" s="17"/>
       <c r="Q42" s="17"/>
@@ -2415,9 +2506,9 @@
       <c r="U42" s="17"/>
       <c r="V42" s="17"/>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K43" s="8">
         <v>10</v>
@@ -2430,9 +2521,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -2451,7 +2542,7 @@
       </c>
       <c r="N44" s="11"/>
       <c r="O44" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
@@ -2461,22 +2552,22 @@
       <c r="U44" s="11"/>
       <c r="V44" s="11"/>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="K45" s="8">
         <f>SUM(K3:K44)</f>
         <v>60</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M45" s="15">
         <f>SUM(M3:M44)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="46.5" customHeight="1">
+    <row r="46" spans="1:22" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -2508,6 +2599,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100EE5E25FB249D2A42964DA96CA544D780" ma:contentTypeVersion="2" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="c18436aacae7f40f77613d6c6cab4ecd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2f81bd01-781c-4633-9e57-d6201b989b33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c87c628cfe2b4d295fd1a336f3d061ce" ns2:_="">
     <xsd:import namespace="2f81bd01-781c-4633-9e57-d6201b989b33"/>
@@ -2639,12 +2736,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2655,13 +2746,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74A03187-4FE1-44DF-9743-7CD3200BA8AE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E88285D9-78C8-461C-8675-340FD7347BB6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E88285D9-78C8-461C-8675-340FD7347BB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74A03187-4FE1-44DF-9743-7CD3200BA8AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2f81bd01-781c-4633-9e57-d6201b989b33"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E57C8B21-0DAD-4471-B05A-A04422128489}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E57C8B21-0DAD-4471-B05A-A04422128489}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>